--- a/fed-events/Fed_Events-03.25.23.xlsx
+++ b/fed-events/Fed_Events-03.25.23.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="231">
   <si>
     <t>Event Name</t>
   </si>
@@ -582,6 +582,9 @@
     <t>AFCEA Northern VA</t>
   </si>
   <si>
+    <t>AFCEA DC</t>
+  </si>
+  <si>
     <t>Engage and Connect Series | Breakfast with DHS!</t>
   </si>
   <si>
@@ -688,6 +691,30 @@
   </si>
   <si>
     <t>https://www.afcea.org/calendar/pubcalendar.jsp?af=N&amp;w=Y&amp;sponsor_id=100000284&amp;state=&amp;country=&amp;days=&amp;sdt=&amp;edt=&amp;keywords=&amp;Submit=Search</t>
+  </si>
+  <si>
+    <t>April: 2023 Tech Summit - National Security &amp; Our Technology Edge</t>
+  </si>
+  <si>
+    <t>May: 16th Annual Military IT Leadership Awards</t>
+  </si>
+  <si>
+    <t>May: Monthly Luncheon Series Event</t>
+  </si>
+  <si>
+    <t>Tuesday, April 11th</t>
+  </si>
+  <si>
+    <t>Wednesday, May 11th from 7:00 PM - 10:00 PM ET</t>
+  </si>
+  <si>
+    <t>Wednesday, May 24th from 11:00 AM - 1:00 PM ET</t>
+  </si>
+  <si>
+    <t>https://afceadc.swoogo.com/techsummit23/</t>
+  </si>
+  <si>
+    <t>https://afceadc.swoogo.com/milit23/</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1919,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1916,35 +1943,35 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1965,109 +1992,155 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2085,6 +2158,8 @@
     <hyperlink ref="C18" r:id="rId11"/>
     <hyperlink ref="C19" r:id="rId12"/>
     <hyperlink ref="C20" r:id="rId13"/>
+    <hyperlink ref="C25" r:id="rId14"/>
+    <hyperlink ref="C26" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fed-events/Fed_Events-03.25.23.xlsx
+++ b/fed-events/Fed_Events-03.25.23.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Nextgov" sheetId="3" r:id="rId3"/>
     <sheet name="Meritalk" sheetId="4" r:id="rId4"/>
     <sheet name="AFCEA" sheetId="5" r:id="rId5"/>
+    <sheet name="AFFIRM" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="247">
   <si>
     <t>Event Name</t>
   </si>
@@ -715,6 +716,54 @@
   </si>
   <si>
     <t>https://afceadc.swoogo.com/milit23/</t>
+  </si>
+  <si>
+    <t>Virtual Monthly Speaker Series: Supply Chain Risk Management in a Global World</t>
+  </si>
+  <si>
+    <t>2023 Federal IT Career Workshop</t>
+  </si>
+  <si>
+    <t>Virtual Monthly Speaker Series: Building Blocks of Government in the Metaverse</t>
+  </si>
+  <si>
+    <t>Virtual Monthly Speaker Series: Emerging Technologies and AI</t>
+  </si>
+  <si>
+    <t>WedApril19</t>
+  </si>
+  <si>
+    <t>TueApril25</t>
+  </si>
+  <si>
+    <t>WedMay17</t>
+  </si>
+  <si>
+    <t>WedJune21</t>
+  </si>
+  <si>
+    <t>Thought leaders from government and industry discuss the nature of complex software environments and methods to better manage and mitigate supply chain risks.</t>
+  </si>
+  <si>
+    <t>Join AFFIRM for this in-person workshop as you navigate your path through a career in government.</t>
+  </si>
+  <si>
+    <t>Our panel will discuss the pitfalls and the promise of the future of technology in the metaverse.</t>
+  </si>
+  <si>
+    <t>Save the Date - event information coming soon!</t>
+  </si>
+  <si>
+    <t>https://associationforfederalinformationresourcesmanagementaffirm.growthzoneapp.com/ap/Events/Register/9p8B3mdL?sourceTypeId=Website&amp;mode=Attendee</t>
+  </si>
+  <si>
+    <t>https://associationforfederalinformationresourcesmanagementaffirm.growthzoneapp.com/ap/Events/Register/MrD67RZP?sourceTypeId=Website&amp;mode=Attendee</t>
+  </si>
+  <si>
+    <t>https://associationforfederalinformationresourcesmanagementaffirm.growthzoneapp.com/ap/Events/Register/Zrnd7e0P?sourceTypeId=Website&amp;mode=Attendee</t>
+  </si>
+  <si>
+    <t>https://associationforfederalinformationresourcesmanagementaffirm.growthzoneapp.com/ap/Events/Register/DpBbzVkp?sourceTypeId=Website&amp;mode=Attendee</t>
   </si>
 </sst>
 </file>
@@ -2163,4 +2212,93 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fed-events/Fed_Events-03.25.23.xlsx
+++ b/fed-events/Fed_Events-03.25.23.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Meritalk" sheetId="4" r:id="rId4"/>
     <sheet name="AFCEA" sheetId="5" r:id="rId5"/>
     <sheet name="AFFIRM" sheetId="6" r:id="rId6"/>
+    <sheet name="ATARC" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="275">
   <si>
     <t>Event Name</t>
   </si>
@@ -764,6 +765,90 @@
   </si>
   <si>
     <t>https://associationforfederalinformationresourcesmanagementaffirm.growthzoneapp.com/ap/Events/Register/DpBbzVkp?sourceTypeId=Website&amp;mode=Attendee</t>
+  </si>
+  <si>
+    <t>Webinar: Tradewind Solutions Marketplace</t>
+  </si>
+  <si>
+    <t>Quantum Speaker Series</t>
+  </si>
+  <si>
+    <t>ATARC’s Data Management Breakfast Summit</t>
+  </si>
+  <si>
+    <t>2023 ATARC Artificial Intelligence and Data Analytics Breakfast Summit</t>
+  </si>
+  <si>
+    <t>GITEC Conference 2023</t>
+  </si>
+  <si>
+    <t>Quantum Speaker Series: Kate Weber</t>
+  </si>
+  <si>
+    <t>March 28 @ 10:00 AM</t>
+  </si>
+  <si>
+    <t>March 29 @ 3:30 PM</t>
+  </si>
+  <si>
+    <t>March 30 @ 7:30 AM</t>
+  </si>
+  <si>
+    <t>April 6 @ 7:30 AM</t>
+  </si>
+  <si>
+    <t>April 30 @ 2:00 PM</t>
+  </si>
+  <si>
+    <t>June 6 @ 1:30 PM</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>The Ritz-Carlton, Pentagon City</t>
+  </si>
+  <si>
+    <t>Washington Marriott at Metro Center</t>
+  </si>
+  <si>
+    <t>Graduate Annapolis</t>
+  </si>
+  <si>
+    <t>Tradewind Solutions Marketplace Industry and Government Welcome! March 28, 2023     10:00 - 11:00 AM ETA Marketplace for AI/ML, Digital and Data Analytics Solutions You have heard all the buzz […]</t>
+  </si>
+  <si>
+    <t>The Quantum Science Center (QSC) is a national quantum information science research center sponsored by the Department of Energy to overcome the key challenges facing the development of scalable quantum technologies. This talk will highlight accomplishments from the QSC partnership of 16 institutions working toward...</t>
+  </si>
+  <si>
+    <t>In partnership with 4.0 CPE Credits Available for this Event***Registration   |    Breakfast Opening RemarksKeynoteIndustry Panel: Ensure the Efficient Use of Data Isn’t Your Agency’s Missing Link With a less-effective […]</t>
+  </si>
+  <si>
+    <t>3.0 CPE Credits Available for this Event***Registration   |    Breakfast Welcome and Opening RemarksVisionary Keynote BriefingVisionary Panel: Women in AI and Data Analytics Thousands of women have worked to provide […]</t>
+  </si>
+  <si>
+    <t>April 30 - May 2, 2023 at Graduate Annapolis Hotel, 126 West St, Annapolis, MD 21401 Room Hold at Graduate Annapolis Hotel -- Get your reservation before they're gone. Attendance […]</t>
+  </si>
+  <si>
+    <t>[et_pb_fullwidth_header text_orientation="center" content_tablet="" content_phone=" Presents Quantum Speaker Series: National Laboratory Quantum Computing Testbeds March 1, 2023 | 3:30 - 4:00 PM ET " content_last_edited="on|desktop" admin_label="Containers" _builder_version="4.19.5" background_color="#ffffff" background_image="https://atarc.org/wp-content/uploads/2022/03/light-blue-banner.jpg" background_layout="light" min_height="238.7px" […]</t>
+  </si>
+  <si>
+    <t>https://atarc.org/event/3-28-23-webinar-tradewind-marketplace/</t>
+  </si>
+  <si>
+    <t>https://atarc.org/event/quantum-series-discovery-and-innovation/</t>
+  </si>
+  <si>
+    <t>https://atarc.org/event/data-analytics/</t>
+  </si>
+  <si>
+    <t>https://atarc.org/event/2023-ai-data-breakfastsummit/</t>
+  </si>
+  <si>
+    <t>https://atarc.org/event/gitec-2023/</t>
+  </si>
+  <si>
+    <t>https://atarc.org/event/quantum-speaker-series-weber/</t>
   </si>
 </sst>
 </file>
@@ -2301,4 +2386,141 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>